--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="135">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,12 +49,12 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
@@ -64,6 +64,9 @@
     <t>smaller</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
@@ -73,97 +76,106 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>daughter</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>beautiful</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>wife</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>nice</t>
@@ -172,196 +184,217 @@
     <t>pie</t>
   </si>
   <si>
-    <t>potatoes</t>
+    <t>nicely</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
     <t>cooks</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>cooking</t>
+    <t>far</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>bought</t>
   </si>
   <si>
     <t>making</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>coffee</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>big</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>last</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>job</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>job</t>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>got</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>first</t>
+    <t>use</t>
   </si>
   <si>
     <t>handle</t>
@@ -370,31 +403,19 @@
     <t>made</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>would</t>
   </si>
   <si>
     <t>product</t>
-  </si>
-  <si>
-    <t>would</t>
   </si>
   <si>
     <t>positive</t>
@@ -755,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q111"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -763,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -824,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -842,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.978494623655914</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -866,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -874,13 +895,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -892,31 +913,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>0.8840579710144928</v>
+      </c>
+      <c r="L4">
+        <v>61</v>
+      </c>
+      <c r="M4">
+        <v>61</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4">
-        <v>0.90625</v>
-      </c>
-      <c r="L4">
-        <v>116</v>
-      </c>
-      <c r="M4">
-        <v>116</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -945,16 +966,16 @@
         <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.8560371517027864</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>553</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>553</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -966,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -974,13 +995,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4341085271317829</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -992,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>561</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>561</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1016,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1024,37 +1045,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4339622641509434</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C7">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>73</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K7">
-        <v>0.7359307359307359</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L7">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M7">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1066,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1095,16 +1116,16 @@
         <v>62</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.7272727272727273</v>
+        <v>0.7423728813559322</v>
       </c>
       <c r="L8">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="M8">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1116,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1124,37 +1145,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.282051282051282</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.7241379310344828</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1166,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1174,13 +1195,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1941747572815534</v>
+        <v>0.2038834951456311</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1192,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.7050847457627119</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L10">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1216,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1224,13 +1245,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1783783783783784</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1242,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.6956521739130435</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1266,21 +1287,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>155</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.6857142857142857</v>
+        <v>0.7</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1292,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.684931506849315</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L13">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1318,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.6590909090909091</v>
+        <v>0.6717495987158909</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>837</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>837</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1344,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.6581059390048154</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L15">
-        <v>820</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>820</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1370,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>426</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.6470588235294118</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,21 +1441,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.6457142857142857</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,21 +1467,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6444444444444445</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1448,15 +1493,15 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.5972222222222222</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L19">
         <v>43</v>
@@ -1474,21 +1519,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.5918367346938775</v>
+        <v>0.59375</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1500,21 +1545,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.5789473684210527</v>
+        <v>0.5802469135802469</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1526,12 +1571,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
         <v>0.5692307692307692</v>
@@ -1557,16 +1602,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.5416666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1578,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5352112676056338</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1604,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5338345864661654</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L25">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1630,21 +1675,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.5329341317365269</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="L26">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M26">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1656,15 +1701,15 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.5192307692307693</v>
+        <v>0.54</v>
       </c>
       <c r="L27">
         <v>54</v>
@@ -1682,21 +1727,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.5128205128205128</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L28">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M28">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1708,21 +1753,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1734,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.484375</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1760,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.4698795180722892</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1786,21 +1831,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.4578313253012048</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M32">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1812,21 +1857,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4567901234567901</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1838,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.45</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L34">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1864,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.4313725490196079</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L35">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1890,21 +1935,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>232</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.4153846153846154</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1916,21 +1961,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.4126984126984127</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1942,21 +1987,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.4046692607003891</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L38">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="M38">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1968,21 +2013,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>153</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.3877551020408163</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1994,15 +2039,15 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.3770491803278688</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L40">
         <v>23</v>
@@ -2020,21 +2065,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.375</v>
+        <v>0.3968871595330739</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2046,21 +2091,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>35</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.3684210526315789</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L42">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M42">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2072,21 +2117,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.3564356435643564</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2098,21 +2143,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.354066985645933</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="L44">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2124,21 +2169,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>135</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.3534246575342466</v>
+        <v>0.3841059602649007</v>
       </c>
       <c r="L45">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="M45">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2150,21 +2195,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>472</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.3381294964028777</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="L46">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2176,21 +2221,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.3333333333333333</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2202,21 +2247,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.3333333333333333</v>
+        <v>0.3657534246575342</v>
       </c>
       <c r="L48">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="M48">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2228,47 +2273,47 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>72</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.3225806451612903</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K50">
-        <v>0.3121636167922497</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L50">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2280,21 +2325,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>639</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K51">
-        <v>0.2972972972972973</v>
+        <v>0.3381294964028777</v>
       </c>
       <c r="L51">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M51">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2306,47 +2351,47 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K52">
-        <v>0.2882882882882883</v>
+        <v>0.3149946062567422</v>
       </c>
       <c r="L52">
-        <v>32</v>
+        <v>292</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>294</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>79</v>
+        <v>635</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K53">
-        <v>0.2821192052980133</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="L53">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2358,21 +2403,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>542</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K54">
-        <v>0.2781456953642384</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="L54">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="M54">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2384,21 +2429,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>109</v>
+        <v>525</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K55">
-        <v>0.2758620689655172</v>
+        <v>0.3014354066985646</v>
       </c>
       <c r="L55">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="M55">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2410,47 +2455,47 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>231</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K56">
+        <v>0.297029702970297</v>
+      </c>
+      <c r="L56">
+        <v>30</v>
+      </c>
+      <c r="M56">
+        <v>30</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
         <v>71</v>
-      </c>
-      <c r="K56">
-        <v>0.2751677852348993</v>
-      </c>
-      <c r="L56">
-        <v>41</v>
-      </c>
-      <c r="M56">
-        <v>41</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>108</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K57">
-        <v>0.2666666666666667</v>
+        <v>0.2915360501567398</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2462,47 +2507,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>44</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K58">
-        <v>0.2631578947368421</v>
+        <v>0.2644415917843389</v>
       </c>
       <c r="L58">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>56</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K59">
         <v>0.25</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M59">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2514,47 +2559,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K60">
-        <v>0.245186136071887</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L60">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="M60">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="N60">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>588</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K61">
-        <v>0.23</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2566,21 +2611,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K62">
-        <v>0.2261904761904762</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L62">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2592,15 +2637,15 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K63">
-        <v>0.2205882352941176</v>
+        <v>0.234375</v>
       </c>
       <c r="L63">
         <v>15</v>
@@ -2618,21 +2663,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K64">
-        <v>0.2164948453608248</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="L64">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2644,99 +2689,99 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>228</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K65">
-        <v>0.2146341463414634</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="L65">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="M65">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="N65">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>322</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K66">
-        <v>0.2109704641350211</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="L66">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="N66">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>187</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K67">
-        <v>0.202020202020202</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L67">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M67">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K68">
-        <v>0.2</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="L68">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2748,73 +2793,73 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69">
-        <v>0.1985645933014354</v>
+        <v>0.2</v>
       </c>
       <c r="L69">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="N69">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>335</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K70">
-        <v>0.1951219512195122</v>
+        <v>0.1989100817438692</v>
       </c>
       <c r="L70">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="M70">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>132</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K71">
-        <v>0.1935483870967742</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="L71">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2826,99 +2871,99 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K72">
-        <v>0.1907894736842105</v>
+        <v>0.195</v>
       </c>
       <c r="L72">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="M72">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>369</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73">
-        <v>0.1896551724137931</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M73">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N73">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K74">
-        <v>0.1882352941176471</v>
+        <v>0.1931034482758621</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>69</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K75">
-        <v>0.1863636363636364</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="L75">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="M75">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2930,21 +2975,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>358</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K76">
-        <v>0.1807228915662651</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L76">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M76">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2956,21 +3001,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>68</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K77">
-        <v>0.180327868852459</v>
+        <v>0.1820175438596491</v>
       </c>
       <c r="L77">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="M77">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2982,47 +3027,47 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>100</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K78">
-        <v>0.1721311475409836</v>
+        <v>0.1814814814814815</v>
       </c>
       <c r="L78">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="M78">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="N78">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>303</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K79">
-        <v>0.1717791411042945</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3034,47 +3079,47 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K80">
-        <v>0.1705426356589147</v>
+        <v>0.1774580335731415</v>
       </c>
       <c r="L80">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="M80">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>107</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K81">
-        <v>0.1692307692307692</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="L81">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M81">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3086,21 +3131,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K82">
-        <v>0.1623616236162362</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L82">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M82">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3112,73 +3157,73 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>227</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K83">
-        <v>0.1585365853658537</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L83">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M83">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N83">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K84">
-        <v>0.1534090909090909</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L84">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="M84">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="N84">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O84">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>149</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K85">
-        <v>0.1502732240437158</v>
+        <v>0.17</v>
       </c>
       <c r="L85">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="M85">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3190,47 +3235,47 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>311</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K86">
-        <v>0.1492537313432836</v>
+        <v>0.1681818181818182</v>
       </c>
       <c r="L86">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="M86">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="N86">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>171</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K87">
-        <v>0.1474358974358974</v>
+        <v>0.1680672268907563</v>
       </c>
       <c r="L87">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M87">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3242,47 +3287,47 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>133</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K88">
-        <v>0.1428571428571428</v>
+        <v>0.1512915129151292</v>
       </c>
       <c r="L88">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M88">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N88">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>96</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K89">
-        <v>0.1297709923664122</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="L89">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M89">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3294,21 +3339,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K90">
-        <v>0.125</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L90">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M90">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3320,21 +3365,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K91">
-        <v>0.125</v>
+        <v>0.1452991452991453</v>
       </c>
       <c r="L91">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M91">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3346,125 +3391,125 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>217</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K92">
-        <v>0.1207729468599034</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L92">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M92">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N92">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="O92">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>182</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K93">
-        <v>0.1194244604316547</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L93">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="M93">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="N93">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>612</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K94">
-        <v>0.119047619047619</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="L94">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M94">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>111</v>
+        <v>315</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K95">
-        <v>0.1123595505617977</v>
+        <v>0.1349693251533742</v>
       </c>
       <c r="L95">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="M95">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="N95">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>948</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K96">
-        <v>0.1111111111111111</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L96">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M96">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3476,21 +3521,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>240</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K97">
-        <v>0.1111111111111111</v>
+        <v>0.1221374045801527</v>
       </c>
       <c r="L97">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M97">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3502,151 +3547,151 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K98">
-        <v>0.108695652173913</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="L98">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M98">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N98">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>164</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K99">
-        <v>0.1068702290076336</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L99">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M99">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N99">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>351</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K100">
-        <v>0.09644670050761421</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L100">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M100">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N100">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O100">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>178</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K101">
-        <v>0.07983193277310924</v>
+        <v>0.1142322097378277</v>
       </c>
       <c r="L101">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="M101">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="N101">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O101">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>219</v>
+        <v>946</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K102">
-        <v>0.07785888077858881</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="L102">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M102">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N102">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="O102">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>379</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K103">
-        <v>0.07285342584562012</v>
+        <v>0.1138328530259366</v>
       </c>
       <c r="L103">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M103">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N103">
         <v>0.95</v>
@@ -3658,215 +3703,371 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>1069</v>
+        <v>615</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K104">
-        <v>0.07115384615384615</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L104">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M104">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="N104">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>483</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K105">
-        <v>0.06493506493506493</v>
+        <v>0.09242144177449169</v>
       </c>
       <c r="L105">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M105">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N105">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="O105">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K106">
-        <v>0.0625</v>
+        <v>0.09178743961352658</v>
       </c>
       <c r="L106">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M106">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O106">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106">
-        <v>255</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K107">
-        <v>0.05813953488372093</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="L107">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M107">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N107">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O107">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K108">
-        <v>0.05460750853242321</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="L108">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M108">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="N108">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="O108">
-        <v>0.27</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>277</v>
+        <v>473</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K109">
-        <v>0.05248618784530387</v>
+        <v>0.07948717948717948</v>
       </c>
       <c r="L109">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M109">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N109">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="O109">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K110">
-        <v>0.03841059602649007</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="L110">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M110">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="N110">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O110">
-        <v>0.29</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>726</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K111">
-        <v>0.02904564315352697</v>
+        <v>0.07112970711297072</v>
       </c>
       <c r="L111">
+        <v>17</v>
+      </c>
+      <c r="M111">
+        <v>17</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="10:17">
+      <c r="J112" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K112">
+        <v>0.06617647058823529</v>
+      </c>
+      <c r="L112">
+        <v>27</v>
+      </c>
+      <c r="M112">
+        <v>33</v>
+      </c>
+      <c r="N112">
+        <v>0.82</v>
+      </c>
+      <c r="O112">
+        <v>0.18</v>
+      </c>
+      <c r="P112" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="113" spans="10:17">
+      <c r="J113" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K113">
+        <v>0.0584958217270195</v>
+      </c>
+      <c r="L113">
         <v>21</v>
       </c>
-      <c r="M111">
+      <c r="M113">
         <v>33</v>
       </c>
-      <c r="N111">
+      <c r="N113">
         <v>0.64</v>
       </c>
-      <c r="O111">
+      <c r="O113">
         <v>0.36</v>
       </c>
-      <c r="P111" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q111">
-        <v>702</v>
+      <c r="P113" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K114">
+        <v>0.05571847507331378</v>
+      </c>
+      <c r="L114">
+        <v>19</v>
+      </c>
+      <c r="M114">
+        <v>23</v>
+      </c>
+      <c r="N114">
+        <v>0.83</v>
+      </c>
+      <c r="O114">
+        <v>0.17</v>
+      </c>
+      <c r="P114" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K115">
+        <v>0.05514705882352941</v>
+      </c>
+      <c r="L115">
+        <v>15</v>
+      </c>
+      <c r="M115">
+        <v>15</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K116">
+        <v>0.03017832647462277</v>
+      </c>
+      <c r="L116">
+        <v>22</v>
+      </c>
+      <c r="M116">
+        <v>28</v>
+      </c>
+      <c r="N116">
+        <v>0.79</v>
+      </c>
+      <c r="O116">
+        <v>0.21</v>
+      </c>
+      <c r="P116" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K117">
+        <v>0.02887139107611549</v>
+      </c>
+      <c r="L117">
+        <v>22</v>
+      </c>
+      <c r="M117">
+        <v>27</v>
+      </c>
+      <c r="N117">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O117">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P117" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>740</v>
       </c>
     </row>
   </sheetData>
